--- a/Back/estudiantes.xlsx
+++ b/Back/estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Escritorio\Proyecto2-DisenhoSoftware\Back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32958A4F-1179-4369-A9EA-0447EEEE4E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D0C247-8CBF-4188-A059-E394C6FEC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D2DE09C-9A93-41AF-85BD-8C5D5748A2E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D2DE09C-9A93-41AF-85BD-8C5D5748A2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>carnet</t>
   </si>
@@ -50,12 +50,6 @@
     <t>apellido2</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>rol</t>
   </si>
   <si>
@@ -84,6 +78,36 @@
   </si>
   <si>
     <t>antho@gmail.com</t>
+  </si>
+  <si>
+    <t>nombre2</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>contrasenna</t>
+  </si>
+  <si>
+    <t>campus</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Campus Tecnológico Central Cartago</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>celular</t>
   </si>
 </sst>
 </file>
@@ -449,20 +473,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CB494-D9C4-4228-9921-E9C603184594}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,71 +497,107 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2023054151</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>12345678</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>12345</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>84455111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2021022457</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>12345</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G3">
+        <v>12345678</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>60005555</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C0C63E9F-18C5-45D3-9372-AE5A91031A2C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B8371770-7527-4D2B-BF11-970EC9CFADFC}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C0C63E9F-18C5-45D3-9372-AE5A91031A2C}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{B8371770-7527-4D2B-BF11-970EC9CFADFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
